--- a/_work/fixed/fixed_heat_maps/FixedHeatMaps.xlsx
+++ b/_work/fixed/fixed_heat_maps/FixedHeatMaps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothydement/Google Drive/NCSU/3-Fall-2018/CSC-591-023/CodeSmellsClassifiers/_work/fixed/fixed_heat_maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1F18C-7906-F14C-B807-BF55FB7BED65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD661B5-5854-6B43-8C08-125AA42DB645}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="32000" windowHeight="17540" activeTab="2" xr2:uid="{58F7E98D-0FA8-5A49-A9F2-C17E14C4E51F}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="32000" windowHeight="17540" activeTab="6" xr2:uid="{58F7E98D-0FA8-5A49-A9F2-C17E14C4E51F}"/>
   </bookViews>
   <sheets>
     <sheet name="DC" sheetId="1" r:id="rId1"/>
@@ -3255,6 +3255,682 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:f>FE!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FE!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E5A-DD4F-8C3C-D17C718779A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F-Score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FE!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FE!$F$3:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E5A-DD4F-8C3C-D17C718779A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1 - Normalized Distance to Heaven</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FE!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FE!$I$3:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E5A-DD4F-8C3C-D17C718779A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1333598799"/>
+        <c:axId val="1330481743"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1333598799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1330481743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1330481743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333598799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
               <c:f>(LM!$A$3:$A$5,LM!$A$9,LM!$A$13,LM!$A$17)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -3598,6 +4274,682 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>LM!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LM!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA94-D74F-8B9B-BCDB30CB429B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F-Score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>LM!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LM!$F$3:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA94-D74F-8B9B-BCDB30CB429B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1 - Normalized Distance to Heaven</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>LM!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>RAND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LM!$I$3:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA94-D74F-8B9B-BCDB30CB429B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1382116063"/>
+        <c:axId val="1377924575"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1382116063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377924575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377924575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382116063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3917,6 +5269,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6433,6 +7865,1012 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7127,6 +9565,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84EE213-494F-CC45-891D-42913C7F6D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7163,6 +9637,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA402B00-DF2F-C74F-A531-42EA232D5B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7470,7 +9980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02165E2-71D3-7A4D-8853-226BDC8B33EF}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -9065,7 +11575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC7563B-150C-F549-9A71-8D50DBAD82DC}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
@@ -10548,7 +13058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892D7E16-15A7-DD49-8673-53EB053CF991}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12029,7 +14541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C4FDE0-32D3-6944-96E9-3A0737B5A2B2}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
